--- a/cypress/fixtures/fees_import/missing_header_fees_template.xlsx
+++ b/cypress/fixtures/fees_import/missing_header_fees_template.xlsx
@@ -7,16 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Kgm8WGqeklAMdz4rT13p+GbFErDgAM9geHFf2sXr79s="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>type</t>
   </si>
@@ -41,9 +36,6 @@
   <si>
     <t>data6</t>
   </si>
-  <si>
-    <t>data7</t>
-  </si>
 </sst>
 </file>
 
@@ -52,12 +44,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -84,12 +80,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -302,52 +296,71 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="11.22"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>55.0</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>55.0</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>55.0</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>55.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>55.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>55.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
